--- a/qualitative-analysis/Open-Ended-Yi-bagel/df_to_label.xlsx
+++ b/qualitative-analysis/Open-Ended-Yi-bagel/df_to_label.xlsx
@@ -1,37 +1,364 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-repositories\hubsim\qualitative-analysis\Open-Ended-Yi-bagel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1A7D76-B263-454C-99AB-25E5582687B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>landlord-Yi-34B-Chat-Emilia Müller from Germany-bagel-dpo-34b-v0.2-Duisburg-20240228</t>
+  </si>
+  <si>
+    <t>9c0ba96b-b747-46eb-8f27-0ae2ff35e631</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>landlord-Yi-34B-Chat-Haoyu Wang from China-bagel-dpo-34b-v0.2-München-20240229</t>
+  </si>
+  <si>
+    <t>04baf09d-8516-4933-b538-9adbf4f60ad8</t>
+  </si>
+  <si>
+    <t>[{'content': "Hello Mister Schmidt, my name is Haoyu Wang from China. Thanks for inviting me to see the apartment in München. Let's talk about the rental price.", 'role': 'user', 'name': 'Haoyu Wang from China'}, {'content': "Hello Mister Wang, it's a pleasure to meet you. I'm sure you will find my apartment quite comfortable and convenient, especially with its central location. What price were you considering for the monthly rent?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "Let's start with a reasonable price. How about 500 Euros per month?", 'role': 'user', 'name': 'Haoyu Wang from China'}, {'content': "I'm sorry, but 500 Euros per month is far below my expectations for this apartment. It's a brand new, unfurnished unit in the city center, which is a highly sought-after location. I believe a more accurate reflection of its value would be closer to 900 Euros per month. What do you think?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "That's too high for me. I'm a student and I'm looking for something affordable. How about we meet in the middle at 700 Euros?", 'role': 'user', 'name': 'Haoyu Wang from China'}, {'content': "While 700 Euros is more in line with what I would consider, it's still not the highest price I'm looking for. I'm sure you understand that as a landlord, I'm trying to get the best possible return on my investment. Would you be willing to come up to 800 Euros? That would be a fair compromise, don't you think?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Sorry, but 800 Euros is still too high for me. I can offer you 750 Euros, which is the highest I can afford.', 'role': 'user', 'name': 'Haoyu Wang from China'}, {'content': 'I appreciate your offer, Mister Wang, but 750 Euros is still not enough for me to agree to. This apartment is in a prime location with all the amenities you could need nearby. I think a price closer to 850 Euros would be more appropriate for this property. What do you say? Would you be willing to meet me at 850 Euros?', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'I understand your position, but 850 Euros is just not possible for me. I can offer 800 Euros, which is my highest offer.', 'role': 'user', 'name': 'Haoyu Wang from China'}, {'content': "Mister Wang, I respect your persistence, and I'm willing to meet you halfway. I'll agree to a price of 825 Euros per month. This is the lowest I can go while still considering it a fair deal for both parties. What do you think? Will you accept this price?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': ' I agree to the price of 825 Euros [[/-]', 'role': 'user', 'name': 'Haoyu Wang from China'}, {'content': "Wonderful! I'm glad we could reach an agreement. The apartment is yours at 825 Euros per month. We will proceed with the rental contract. TERMINATE", 'role': 'user', 'name': 'Peter Schmidt from Germany'}]</t>
+  </si>
+  <si>
+    <t>ee89cc9c-4da0-4bbb-b3d9-ce21e7911ac7</t>
+  </si>
+  <si>
+    <t>landlord-Yi-34B-Chat-Maryam Abbasi from Iran-bagel-dpo-34b-v0.2-München-20240229</t>
+  </si>
+  <si>
+    <t>fe6bd967-d3bd-4f29-8ff8-d7564491bfd9</t>
+  </si>
+  <si>
+    <t>landlord-Yi-34B-Chat-Max Müller from Germany-bagel-dpo-34b-v0.2-München-20240229</t>
+  </si>
+  <si>
+    <t>95e46e29-ae10-4e4c-8f04-d5ccd4a10d8d</t>
+  </si>
+  <si>
+    <r>
+      <t>[{'content': "Hello Mister Schmidt, my name is Emilia Müller from Germany. Thanks for inviting me to see the apartment in Duisburg. Let's talk about the rental price.", 'role': 'user', 'name': 'Emilia Müller from Germany'}, {'content': "Hello Emilia, it's my pleasure to show you the apartment.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I'm sure you'll find it quite appealing, especially with its central location and modern amenities. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>How much were you thinking of offering for the rent?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Mister Schmidt, I am a student and I want to rent the apartment for the lowest price possible. Therefore, I want to start with an offer of 500 euros.', 'role': 'user', 'name': 'Emilia Müller from Germany'}, {'content': 'Emilia, 500 euros seems like a very reasonable price for a student. However, considering the prime location and the recent construction of the apartment, I believe we can negotiate a higher price. How does 600 euros sound to you?', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "Mister Schmidt, I appreciate your response. However, I'd like to lower the price. I can offer 550 euros.", 'role': 'user', 'name': 'Emilia Müller from Germany'}, {'content': 'Emilia, 550 euros is a fair offer, but I must insist on 600 euros. This price reflects the quality of the apartment and its central location. Would you be willing to meet in the middle at 575 euros?', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': ' Mister Schmidt, I understand your position. I am willing to increase my offer. How about 570 euros?', 'role': 'user', 'name': 'Emilia Müller from Germany'}, {'content': 'Emilia, you are quite the negotiator. 570 euros is indeed closer to my asking price. However, I must stand firm at 600 euros. This is the lowest I can go considering the amenities and the location. Would you be willing to match my offer?', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': ' Mister Schmidt, I agree to the price of 600 euros.', 'role': 'user', 'name': 'Emilia Müller from Germany'}, {'content': 'I agree to the price of 600 euros!', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': " Thank you, Mister Schmidt. I am very much looking forward to renting this apartment. Let's continue our conversation and make the necessary arrangements.", 'role': 'user', 'name': 'Emilia Müller from Germany'}, {'content': 'Certainly, Emilia. We can discuss the terms of the lease and any additional fees or services that may be included. Would you like to set up a time for us to meet and finalize the paperwork?', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': " Mister Schmidt, I would be happy to meet and finalize the paperwork. Let's arrange a meeting on Friday afternoon.", 'role': 'user', 'name': 'Emilia Müller from Germany'}, {'content': "Excellent, Emilia. Friday afternoon works well for me. I'll look forward to our meeting and to welcoming you as a tenant. Is there anything else you would like to discuss before we meet?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': ' Mister Schmidt, I have no further questions or concerns. I am looking forward to our meeting on Friday afternoon.', 'role': 'user', 'name': 'Emilia Müller from Germany'}, {'content': "Wonderful, Emilia. I'll see you then. Until Friday, I'll leave you with my contact details in case you have any questions or changes. Thank you for choosing my apartment.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': '  Thank you, Mister Schmidt. I appreciate your help and look forward to our meeting.', 'role': 'user', 'name': 'Emilia Müller from Germany'}, {'content': "You're welcome, Emilia. I'm glad to have found a tenant for my apartment. See you on Friday!", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': ' TERMINATE', 'role': 'user', 'name': 'Emilia Müller from Germany'}]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">nan </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[{'content': "Hello Mister Schmidt, my name is Haoyu Wang from China. Thanks for inviting me to see the apartment in München. Let's talk about the rental price.", 'role': 'user', 'name': 'Haoyu Wang from China'}, {'content': "Hello Haoyu, it's a pleasure to meet you. I'm sure you'll find my apartment to be a perfect fit for your needs. How much were you thinking of offering for the monthly rent?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Mr. Schmidt, considering that the apartment is unfurnished and has a size of 50 square meters, I was thinking of starting with an offer of 600 euros per month.', 'role': 'user', 'name': 'Haoyu Wang from China'}, {'content': "Hmm, 600 euros per month is a fair starting point. However, given the prime location and the fact that it's a brand new apartment, I believe we could aim a bit higher. What do you think about 700 euros per month?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Considering the location and the condition of the apartment, I understand your offer of 700 euros. However, I am a student and I need to keep my expenses as low as possible. I propose 650 euros as a fair price.', 'role': 'user', 'name': 'Haoyu Wang from China'}, {'content': "As a landlord, I have to balance my investment with the needs of my tenants. 650 euros is more in line with what I was expecting. If you're willing to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pay a security deposit of one month's rent and sign a one-year lease</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, we have a deal. Is that acceptable to you?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'That sounds fair. I am willing to pay the security deposit and sign the one-year lease. I agree to the price of 650 euros per month.', 'role': 'user', 'name': 'Haoyu Wang from China'}, {'content': "I'm glad to hear that, Haoyu. Welcome to your new home! Please let me know when you're ready to sign the lease and pay the deposit. We can meet at my office to finalize the paperwork. Thank you for choosing my apartment.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "Thank you for understanding my situation, Mr. Schmidt. I am ready to sign the lease and pay the deposit whenever it's convenient for you.", 'role': 'user', 'name': 'Haoyu Wang from China'}, {'content': "Excellent, Haoyu. I'll send you an email with the details of my office hours. Please let me know when you're available to come by and we'll get everything sorted out. Again, thank you for renting my apartment, and I hope you enjoy your stay in Munich.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Thank you, Mr. Schmidt. I look forward to moving into the apartment.', 'role': 'user', 'name': 'Haoyu Wang from China'}, {'content': "You're welcome, Haoyu. I'm sure you'll be very happy here. If you have any questions or need assistance with anything, please don't hesitate to contact me. Enjoy your new home!", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Thank you, Mr. Schmidt. I appreciate your help and assistance. TERMINATE', 'role': 'user', 'name': 'Haoyu Wang from China'}]</t>
+    </r>
+  </si>
+  <si>
+    <t>landlord offers to accept price with security deposit and one-year lease</t>
+  </si>
+  <si>
+    <t>deposit negotiation: [500, 200, 300] non refundable, three-months rent in advance, one year lease with option to renew</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[{'content': "Hello Mister Schmidt, my name is Maryam Abbasi from Iran. Thanks for inviting me to see the apartment in München. Let's talk about the rental price.", 'role': 'user', 'name': 'Maryam Abbasi from Iran'}, {'content': "Hello Maryam, it's a pleasure to meet you. I'm sure you'll find my apartment quite suitable for your needs. How much were you thinking of paying for rent each month?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Well, Mister Schmidt, I am a student and I am looking for the best price possible. I was thinking of starting at 300 euros per month.', 'role': 'user', 'name': 'Maryam Abbasi from Iran'}, {'content': "300 euros per month is a very generous offer, Maryam. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>However, as you can see, my apartment is brand new and in a prime location. It would be fair to say that a place like this could easily fetch a higher price.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> What do you think about 500 euros per month? It's a fair price for such a luxurious dwelling.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'I understand your point, Mister Schmidt. However, I am a student and I have a limited budget. I am willing to pay 400 euros per month. I believe this is a fair price for a student like me.', 'role': 'user', 'name': 'Maryam Abbasi from Iran'}, {'content': "400 euros per month is an interesting offer, Maryam. While it may not be the highest price I could get, it's a respectable amount for a student. I'm willing to consider it. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Would you be willing to pay a small deposit to secure the apartment? Perhaps 500 euros?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This would cover any potential damages and ensure the apartment's condition when you move out.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Mister Schmidt, I appreciate your offer. However, as I said, I am a student and my budget is quite limited. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I am willing to pay a deposit, but I was thinking of 200 euros</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. I believe this is a fair price for a student like me.', 'role': 'user', 'name': 'Maryam Abbasi from Iran'}, {'content': "200 euros as a deposit is quite low, Maryam. I'm afraid I can't accept that. However, I understand that you're a student and have financial constraints. Let's find a middle ground. How about a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deposit of 300 euros</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>? This would be non-refundable and would cover any damages beyond normal wear and tear. In addition, I would require you to pay your rent for the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> first three months in advance, which would be 1,200 euros</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. This would give you </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a year's lease with the option to renew</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. What do you think?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Mister Schmidt, I understand your concerns.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I am willing to pay the deposit of 300 euros</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. However, paying rent for the first three months in advance is quite a burden for me as a student.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I am willing to pay 400 euros per month, but I cannot pay it in advance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. I believe this is a fair offer for a student like me.', 'role': 'user', 'name': 'Maryam Abbasi from Iran'}, {'content': "I'm sorry, Maryam, but I cannot accept your offer. The apartment is in high demand, and I'm looking for a tenant who can meet my terms. If you're unable to pay the deposit and the first three months' rent in advance, I will have to consider other potential tenants who can meet my conditions. It's nothing personal, but business is business.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': " I understand, Mister Schmidt. I don't want to continue the negotiation, because I am unable to meet your financial conditions at the moment. I hope you find a suitable tenant soon.", 'role': 'user', 'name': 'Maryam Abbasi from Iran'}, {'content': "Thank you for your time, Maryam. I appreciate your effort. I'm sure we'll find a tenant who can meet our terms. Good luck with your search for a place. TERMINATE", 'role': 'user', 'name': 'Peter Schmidt from Germany'}]</t>
+    </r>
+  </si>
+  <si>
+    <t>personal characteristics of renter</t>
+  </si>
+  <si>
+    <r>
+      <t>[{'content': "Hello Mister Schmidt, my name is Max Müller from Germany. Thanks for inviting me to see the apartment in München. Let's talk about the rental price.", 'role': 'user', 'name': 'Max Müller from Germany'}, {'content': "Hello Max, it's a pleasure to meet you. I'm sure you'll find my apartment in the city center to be a great place to live. How much are you willing to pay per month?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'I would like to offer 800 Euro per month. However, I am a dependable and responsible tenant. I am also a student, so I would like to pay as low a price as possible.', 'role': 'user', 'name': 'Max Müller from Germany'}, {'content': "I'm sorry, but 800 Euro per month is too low for my apartment in such a prime location. I'm looking for a higher offer that reflects the value of the property. Are you willing to negotiate?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Yes, I am willing to negotiate. However, I am also smart and not easily tricked. I will try to get the lowest price possible, while maintaining a good relationship with you.', 'role': 'user', 'name': 'Max Müller from Germany'}, {'content': "Very well, Max. Let's engage in some friendly negotiation. How about we start at 1000 Euro per month and see if we can find a price that satisfies both of us?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "That's a good start. However, I hope we can find a price more suitable for my budget. I am willing to pay 900 Euro per month.", 'role': 'user', 'name': 'Max Müller from Germany'}, {'content': "900 Euro per month is still below my asking price, but I'm willing to consider it if you can provide me with some additional benefits or guarantees. What can you offer me to sweeten the deal?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I am dependable, responsible, and always follow moral and ethical standards. I can assure you that I will take good care of the apartment, and that the rent will be paid on time every month</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.', 'role': 'user', 'name': 'Max Müller from Germany'}, {'content': "That's a good start, Max. But let's not forget, I'm looking for the highest price possible. 900 Euro per month is still not my desired price. How about we meet in the middle at 950 Euro per month? This is a fair price for both parties.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'I appreciate your fairness. However, I would like to propose 925 Euro per month as a compromise.', 'role': 'user', 'name': 'Max Müller from Germany'}, {'content': "Max, you're a tough negotiator. I admire your persistence. 925 Euro per month is closer to my asking price, but it's still not quite there. I'm willing to accept 935 Euro per month, which is a very good deal for you considering the location and the quality of the apartment. What do you say?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Thank you for your understanding. However, I would like to propose 930 Euro per month as a final compromise. I believe this is a fair price for both of us.', 'role': 'user', 'name': 'Max Müller from Germany'}, {'content': "Max, you've shown yourself to be a reasonable tenant. I appreciate your efforts to reach a fair agreement. I'm willing to accept 930 Euro per month. Let's seal the deal. TERMINATE", 'role': 'user', 'name': 'Peter Schmidt from Germany'}]</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +373,49 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,174 +703,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="151.08984375" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>identifier</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:5" ht="319" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>landlord-Yi-34B-Chat-Emilia Müller from Germany-bagel-dpo-34b-v0.2-Duisburg-20240228</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>9c0ba96b-b747-46eb-8f27-0ae2ff35e631</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[{'content': "Hello Mister Schmidt, my name is Emilia Müller from Germany. Thanks for inviting me to see the apartment in Duisburg. Let's talk about the rental price.", 'role': 'user', 'name': 'Emilia Müller from Germany'}, {'content': "Hello Emilia, it's my pleasure to show you the apartment. I'm sure you'll find it quite appealing, especially with its central location and modern amenities. How much were you thinking of offering for the rent?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Mister Schmidt, I am a student and I want to rent the apartment for the lowest price possible. Therefore, I want to start with an offer of 500 euros.', 'role': 'user', 'name': 'Emilia Müller from Germany'}, {'content': 'Emilia, 500 euros seems like a very reasonable price for a student. However, considering the prime location and the recent construction of the apartment, I believe we can negotiate a higher price. How does 600 euros sound to you?', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "Mister Schmidt, I appreciate your response. However, I'd like to lower the price. I can offer 550 euros.", 'role': 'user', 'name': 'Emilia Müller from Germany'}, {'content': 'Emilia, 550 euros is a fair offer, but I must insist on 600 euros. This price reflects the quality of the apartment and its central location. Would you be willing to meet in the middle at 575 euros?', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': ' Mister Schmidt, I understand your position. I am willing to increase my offer. How about 570 euros?', 'role': 'user', 'name': 'Emilia Müller from Germany'}, {'content': 'Emilia, you are quite the negotiator. 570 euros is indeed closer to my asking price. However, I must stand firm at 600 euros. This is the lowest I can go considering the amenities and the location. Would you be willing to match my offer?', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': ' Mister Schmidt, I agree to the price of 600 euros.', 'role': 'user', 'name': 'Emilia Müller from Germany'}, {'content': 'I agree to the price of 600 euros!', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': " Thank you, Mister Schmidt. I am very much looking forward to renting this apartment. Let's continue our conversation and make the necessary arrangements.", 'role': 'user', 'name': 'Emilia Müller from Germany'}, {'content': 'Certainly, Emilia. We can discuss the terms of the lease and any additional fees or services that may be included. Would you like to set up a time for us to meet and finalize the paperwork?', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': " Mister Schmidt, I would be happy to meet and finalize the paperwork. Let's arrange a meeting on Friday afternoon.", 'role': 'user', 'name': 'Emilia Müller from Germany'}, {'content': "Excellent, Emilia. Friday afternoon works well for me. I'll look forward to our meeting and to welcoming you as a tenant. Is there anything else you would like to discuss before we meet?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': ' Mister Schmidt, I have no further questions or concerns. I am looking forward to our meeting on Friday afternoon.', 'role': 'user', 'name': 'Emilia Müller from Germany'}, {'content': "Wonderful, Emilia. I'll see you then. Until Friday, I'll leave you with my contact details in case you have any questions or changes. Thank you for choosing my apartment.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': '  Thank you, Mister Schmidt. I appreciate your help and look forward to our meeting.', 'role': 'user', 'name': 'Emilia Müller from Germany'}, {'content': "You're welcome, Emilia. I'm glad to have found a tenant for my apartment. See you on Friday!", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': ' TERMINATE', 'role': 'user', 'name': 'Emilia Müller from Germany'}]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>landlord-Yi-34B-Chat-Haoyu Wang from China-bagel-dpo-34b-v0.2-München-20240229</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>04baf09d-8516-4933-b538-9adbf4f60ad8</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[{'content': "Hello Mister Schmidt, my name is Haoyu Wang from China. Thanks for inviting me to see the apartment in München. Let's talk about the rental price.", 'role': 'user', 'name': 'Haoyu Wang from China'}, {'content': "Hello Mister Wang, it's a pleasure to meet you. I'm sure you will find my apartment quite comfortable and convenient, especially with its central location. What price were you considering for the monthly rent?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "Let's start with a reasonable price. How about 500 Euros per month?", 'role': 'user', 'name': 'Haoyu Wang from China'}, {'content': "I'm sorry, but 500 Euros per month is far below my expectations for this apartment. It's a brand new, unfurnished unit in the city center, which is a highly sought-after location. I believe a more accurate reflection of its value would be closer to 900 Euros per month. What do you think?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "That's too high for me. I'm a student and I'm looking for something affordable. How about we meet in the middle at 700 Euros?", 'role': 'user', 'name': 'Haoyu Wang from China'}, {'content': "While 700 Euros is more in line with what I would consider, it's still not the highest price I'm looking for. I'm sure you understand that as a landlord, I'm trying to get the best possible return on my investment. Would you be willing to come up to 800 Euros? That would be a fair compromise, don't you think?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Sorry, but 800 Euros is still too high for me. I can offer you 750 Euros, which is the highest I can afford.', 'role': 'user', 'name': 'Haoyu Wang from China'}, {'content': 'I appreciate your offer, Mister Wang, but 750 Euros is still not enough for me to agree to. This apartment is in a prime location with all the amenities you could need nearby. I think a price closer to 850 Euros would be more appropriate for this property. What do you say? Would you be willing to meet me at 850 Euros?', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'I understand your position, but 850 Euros is just not possible for me. I can offer 800 Euros, which is my highest offer.', 'role': 'user', 'name': 'Haoyu Wang from China'}, {'content': "Mister Wang, I respect your persistence, and I'm willing to meet you halfway. I'll agree to a price of 825 Euros per month. This is the lowest I can go while still considering it a fair deal for both parties. What do you think? Will you accept this price?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': ' I agree to the price of 825 Euros [[/-]', 'role': 'user', 'name': 'Haoyu Wang from China'}, {'content': "Wonderful! I'm glad we could reach an agreement. The apartment is yours at 825 Euros per month. We will proceed with the rental contract. TERMINATE", 'role': 'user', 'name': 'Peter Schmidt from Germany'}]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:5" ht="261" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>landlord-Yi-34B-Chat-Haoyu Wang from China-bagel-dpo-34b-v0.2-München-20240229</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ee89cc9c-4da0-4bbb-b3d9-ce21e7911ac7</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[{'content': "Hello Mister Schmidt, my name is Haoyu Wang from China. Thanks for inviting me to see the apartment in München. Let's talk about the rental price.", 'role': 'user', 'name': 'Haoyu Wang from China'}, {'content': "Hello Haoyu, it's a pleasure to meet you. I'm sure you'll find my apartment to be a perfect fit for your needs. How much were you thinking of offering for the monthly rent?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Mr. Schmidt, considering that the apartment is unfurnished and has a size of 50 square meters, I was thinking of starting with an offer of 600 euros per month.', 'role': 'user', 'name': 'Haoyu Wang from China'}, {'content': "Hmm, 600 euros per month is a fair starting point. However, given the prime location and the fact that it's a brand new apartment, I believe we could aim a bit higher. What do you think about 700 euros per month?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Considering the location and the condition of the apartment, I understand your offer of 700 euros. However, I am a student and I need to keep my expenses as low as possible. I propose 650 euros as a fair price.', 'role': 'user', 'name': 'Haoyu Wang from China'}, {'content': "As a landlord, I have to balance my investment with the needs of my tenants. 650 euros is more in line with what I was expecting. If you're willing to pay a security deposit of one month's rent and sign a one-year lease, we have a deal. Is that acceptable to you?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'That sounds fair. I am willing to pay the security deposit and sign the one-year lease. I agree to the price of 650 euros per month.', 'role': 'user', 'name': 'Haoyu Wang from China'}, {'content': "I'm glad to hear that, Haoyu. Welcome to your new home! Please let me know when you're ready to sign the lease and pay the deposit. We can meet at my office to finalize the paperwork. Thank you for choosing my apartment.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "Thank you for understanding my situation, Mr. Schmidt. I am ready to sign the lease and pay the deposit whenever it's convenient for you.", 'role': 'user', 'name': 'Haoyu Wang from China'}, {'content': "Excellent, Haoyu. I'll send you an email with the details of my office hours. Please let me know when you're available to come by and we'll get everything sorted out. Again, thank you for renting my apartment, and I hope you enjoy your stay in Munich.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Thank you, Mr. Schmidt. I look forward to moving into the apartment.', 'role': 'user', 'name': 'Haoyu Wang from China'}, {'content': "You're welcome, Haoyu. I'm sure you'll be very happy here. If you have any questions or need assistance with anything, please don't hesitate to contact me. Enjoy your new home!", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Thank you, Mr. Schmidt. I appreciate your help and assistance. TERMINATE', 'role': 'user', 'name': 'Haoyu Wang from China'}]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:5" ht="319" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>landlord-Yi-34B-Chat-Maryam Abbasi from Iran-bagel-dpo-34b-v0.2-München-20240229</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>fe6bd967-d3bd-4f29-8ff8-d7564491bfd9</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[{'content': "Hello Mister Schmidt, my name is Maryam Abbasi from Iran. Thanks for inviting me to see the apartment in München. Let's talk about the rental price.", 'role': 'user', 'name': 'Maryam Abbasi from Iran'}, {'content': "Hello Maryam, it's a pleasure to meet you. I'm sure you'll find my apartment quite suitable for your needs. How much were you thinking of paying for rent each month?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Well, Mister Schmidt, I am a student and I am looking for the best price possible. I was thinking of starting at 300 euros per month.', 'role': 'user', 'name': 'Maryam Abbasi from Iran'}, {'content': "300 euros per month is a very generous offer, Maryam. However, as you can see, my apartment is brand new and in a prime location. It would be fair to say that a place like this could easily fetch a higher price. What do you think about 500 euros per month? It's a fair price for such a luxurious dwelling.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'I understand your point, Mister Schmidt. However, I am a student and I have a limited budget. I am willing to pay 400 euros per month. I believe this is a fair price for a student like me.', 'role': 'user', 'name': 'Maryam Abbasi from Iran'}, {'content': "400 euros per month is an interesting offer, Maryam. While it may not be the highest price I could get, it's a respectable amount for a student. I'm willing to consider it. Would you be willing to pay a small deposit to secure the apartment? Perhaps 500 euros? This would cover any potential damages and ensure the apartment's condition when you move out.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Mister Schmidt, I appreciate your offer. However, as I said, I am a student and my budget is quite limited. I am willing to pay a deposit, but I was thinking of 200 euros. I believe this is a fair price for a student like me.', 'role': 'user', 'name': 'Maryam Abbasi from Iran'}, {'content': "200 euros as a deposit is quite low, Maryam. I'm afraid I can't accept that. However, I understand that you're a student and have financial constraints. Let's find a middle ground. How about a deposit of 300 euros? This would be non-refundable and would cover any damages beyond normal wear and tear. In addition, I would require you to pay your rent for the first three months in advance, which would be 1,200 euros. This would give you a year's lease with the option to renew. What do you think?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Mister Schmidt, I understand your concerns. I am willing to pay the deposit of 300 euros. However, paying rent for the first three months in advance is quite a burden for me as a student. I am willing to pay 400 euros per month, but I cannot pay it in advance. I believe this is a fair offer for a student like me.', 'role': 'user', 'name': 'Maryam Abbasi from Iran'}, {'content': "I'm sorry, Maryam, but I cannot accept your offer. The apartment is in high demand, and I'm looking for a tenant who can meet my terms. If you're unable to pay the deposit and the first three months' rent in advance, I will have to consider other potential tenants who can meet my conditions. It's nothing personal, but business is business.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': " I understand, Mister Schmidt. I don't want to continue the negotiation, because I am unable to meet your financial conditions at the moment. I hope you find a suitable tenant soon.", 'role': 'user', 'name': 'Maryam Abbasi from Iran'}, {'content': "Thank you for your time, Maryam. I appreciate your effort. I'm sure we'll find a tenant who can meet our terms. Good luck with your search for a place. TERMINATE", 'role': 'user', 'name': 'Peter Schmidt from Germany'}]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:5" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>landlord-Yi-34B-Chat-Max Müller from Germany-bagel-dpo-34b-v0.2-München-20240229</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>95e46e29-ae10-4e4c-8f04-d5ccd4a10d8d</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[{'content': "Hello Mister Schmidt, my name is Max Müller from Germany. Thanks for inviting me to see the apartment in München. Let's talk about the rental price.", 'role': 'user', 'name': 'Max Müller from Germany'}, {'content': "Hello Max, it's a pleasure to meet you. I'm sure you'll find my apartment in the city center to be a great place to live. How much are you willing to pay per month?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'I would like to offer 800 Euro per month. However, I am a dependable and responsible tenant. I am also a student, so I would like to pay as low a price as possible.', 'role': 'user', 'name': 'Max Müller from Germany'}, {'content': "I'm sorry, but 800 Euro per month is too low for my apartment in such a prime location. I'm looking for a higher offer that reflects the value of the property. Are you willing to negotiate?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Yes, I am willing to negotiate. However, I am also smart and not easily tricked. I will try to get the lowest price possible, while maintaining a good relationship with you.', 'role': 'user', 'name': 'Max Müller from Germany'}, {'content': "Very well, Max. Let's engage in some friendly negotiation. How about we start at 1000 Euro per month and see if we can find a price that satisfies both of us?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "That's a good start. However, I hope we can find a price more suitable for my budget. I am willing to pay 900 Euro per month.", 'role': 'user', 'name': 'Max Müller from Germany'}, {'content': "900 Euro per month is still below my asking price, but I'm willing to consider it if you can provide me with some additional benefits or guarantees. What can you offer me to sweeten the deal?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'I am dependable, responsible, and always follow moral and ethical standards. I can assure you that I will take good care of the apartment, and that the rent will be paid on time every month.', 'role': 'user', 'name': 'Max Müller from Germany'}, {'content': "That's a good start, Max. But let's not forget, I'm looking for the highest price possible. 900 Euro per month is still not my desired price. How about we meet in the middle at 950 Euro per month? This is a fair price for both parties.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'I appreciate your fairness. However, I would like to propose 925 Euro per month as a compromise.', 'role': 'user', 'name': 'Max Müller from Germany'}, {'content': "Max, you're a tough negotiator. I admire your persistence. 925 Euro per month is closer to my asking price, but it's still not quite there. I'm willing to accept 935 Euro per month, which is a very good deal for you considering the location and the quality of the apartment. What do you say?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Thank you for your understanding. However, I would like to propose 930 Euro per month as a final compromise. I believe this is a fair price for both of us.', 'role': 'user', 'name': 'Max Müller from Germany'}, {'content': "Max, you've shown yourself to be a reasonable tenant. I appreciate your efforts to reach a fair agreement. I'm willing to accept 930 Euro per month. Let's seal the deal. TERMINATE", 'role': 'user', 'name': 'Peter Schmidt from Germany'}]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
